--- a/Shiny/Dati/Effetto_Matrice.xlsx
+++ b/Shiny/Dati/Effetto_Matrice.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camillo\GitHub\DoE_en\Shiny\Dati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DoE\Shiny\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF8B434-30C7-47E3-8E9E-94211DC611B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FE5F9F-F205-4715-A6DC-2AD1A7788854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EF4AAFB8-6298-49FD-8230-F2CC8E86E953}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF4AAFB8-6298-49FD-8230-F2CC8E86E953}"/>
   </bookViews>
   <sheets>
     <sheet name="Effetto Matrice" sheetId="1" r:id="rId1"/>
+    <sheet name="Costruzione" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>x1</t>
   </si>
@@ -46,10 +47,40 @@
     <t>y</t>
   </si>
   <si>
-    <t>HCOOH (%, v/v)</t>
-  </si>
-  <si>
-    <t>NH4OAc (mM)</t>
+    <t>Fattori, abbreviazione</t>
+  </si>
+  <si>
+    <t>Unità di misura</t>
+  </si>
+  <si>
+    <t>Variabile</t>
+  </si>
+  <si>
+    <t>Livello minimo (codificato -1)</t>
+  </si>
+  <si>
+    <t>Livello Centrale (codificato 0)</t>
+  </si>
+  <si>
+    <t>Livello massimo (codificato +1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCOOH, formico </t>
+  </si>
+  <si>
+    <t>(%, v/v)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (mM)</t>
+  </si>
+  <si>
+    <t>NH4OAc,  ammacet</t>
+  </si>
+  <si>
+    <t>formico</t>
+  </si>
+  <si>
+    <t>ammacet</t>
   </si>
 </sst>
 </file>
@@ -254,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -289,24 +320,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -322,7 +375,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -621,137 +674,137 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="4.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>4</v>
+      <c r="C1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>-1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>-1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="16">
         <v>0.1</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="17">
         <v>0</v>
       </c>
       <c r="E2" s="6">
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>-1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="19">
         <v>0</v>
       </c>
       <c r="E3" s="6">
         <v>1.17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>-1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="18">
         <v>0.1</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="19">
         <v>10</v>
       </c>
       <c r="E4" s="6">
         <v>0.81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="21">
         <v>10</v>
       </c>
       <c r="E5" s="9">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="16"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>0</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="18">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="19">
         <v>5</v>
       </c>
       <c r="E7" s="11">
         <v>0.97</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>0</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="21">
         <v>5</v>
       </c>
       <c r="E8" s="9">
@@ -762,4 +815,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1344D2A5-1B34-4B15-AF3C-42FFB010A0FD}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="24"/>
+    <col min="4" max="6" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F2" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>5</v>
+      </c>
+      <c r="F3" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>